--- a/DDAf_2025_Tableau_annexe_Tab33.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6988E3E-C2FC-48BF-83DD-8C1DB1F3F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED44366-9AD5-4950-ACFC-610AC2C67A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{325D4E79-82CB-4EB5-8103-42AF205141C3}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{211E4FFF-ED7E-44BE-A8EA-EBC576CBA921}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8A46FA-F1EA-4C59-B34B-93A75A5CF31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706F9DCD-E2E2-4884-86ED-03AF5BF4B00D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1561,52 +1561,52 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="80" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="80" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="80" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" style="80" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.453125" style="80" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.453125" style="80" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.26953125" style="80" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.1796875" style="80" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="80" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.54296875" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
     </row>
-    <row r="2" spans="1:47" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>135.625</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>17.146999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>7.0709999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>54</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>7.2309999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>134.38900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>147.203</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>40.231000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>463.06099999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>127.18</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>101.97499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>68</v>
@@ -3370,7 +3370,7 @@
         <v>1181.1130000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>69</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>133.87100000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>271.89299999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>73</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>32.930999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>75</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>105.693</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>77</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>61.024999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>79</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>144.06899999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>81</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>14.326000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>83</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>36.720999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>87</v>
@@ -4798,7 +4798,7 @@
         <v>802.55399999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>88</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>14.481</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>29.452000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>92</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>32.244</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>94</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>1929.9659999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>96</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>446.62599999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>98</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>172.29</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>12.875</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>102</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>140.93799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>104</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>107</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>414.41899999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>109</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>57.597999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>111</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>606.64700000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>113</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>303.65800000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>355.12</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>117</v>
@@ -6941,7 +6941,7 @@
         <v>4516.3140000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>118</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>206.89400000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>120</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>864.52700000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>122</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>76.680999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>124</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>60.323</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>126</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>474.63400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>128</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>67.197999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>130</v>
@@ -7940,7 +7940,7 @@
         <v>1750.2570000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>131</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>159.60400000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>133</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>262.33699999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>135</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>4.2050000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>137</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>180.268</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>139</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>13.282999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>141</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>383.63099999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>143</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>74.353999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>145</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>147</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>33.856000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>149</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>100.604</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>151</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>151.142</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>153</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>2717.3240000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>155</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>347.79399999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>157</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>22.003</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>159</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>93.63</v>
       </c>
     </row>
-    <row r="61" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>161</v>
@@ -10226,7 +10226,7 @@
         <v>4575.0649999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>162</v>
@@ -10367,7 +10367,7 @@
         <v>12825.303</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>163</v>
@@ -10508,7 +10508,7 @@
         <v>63243.97</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>164</v>
@@ -10649,7 +10649,7 @@
         <v>7262.1369999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>165</v>
@@ -10790,7 +10790,7 @@
         <v>39448.712</v>
       </c>
     </row>
-    <row r="66" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>166</v>
@@ -10931,7 +10931,7 @@
         <v>76069.273000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>167</v>
@@ -11072,7 +11072,7 @@
         <v>5812.0190000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>168</v>
@@ -11213,7 +11213,7 @@
         <v>7316.2340000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>169</v>
@@ -11354,7 +11354,7 @@
         <v>1581.88</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>170</v>
@@ -11495,7 +11495,7 @@
         <v>1079.117</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>171</v>
@@ -11636,7 +11636,7 @@
         <v>4575.0649999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>172</v>
@@ -11777,7 +11777,7 @@
         <v>3839.828</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>173</v>
@@ -11918,7 +11918,7 @@
         <v>1828.4860000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>174</v>
@@ -12059,7 +12059,7 @@
         <v>885.73</v>
       </c>
     </row>
-    <row r="75" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>175</v>
@@ -12200,7 +12200,7 @@
         <v>320.08800000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>176</v>
@@ -12341,7 +12341,7 @@
         <v>5789.87</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>177</v>
@@ -12482,7 +12482,7 @@
         <v>5097.3739999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>178</v>
@@ -12623,7 +12623,7 @@
         <v>3928.56</v>
       </c>
     </row>
-    <row r="79" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>179</v>
@@ -12764,7 +12764,7 @@
         <v>14181.61</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>180</v>
@@ -12905,7 +12905,7 @@
         <v>759.09100000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>181</v>
@@ -13046,7 +13046,7 @@
         <v>5560.9489999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>182</v>
@@ -13187,7 +13187,7 @@
         <v>12066.212</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>183</v>
@@ -13328,7 +13328,7 @@
         <v>57683.021000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>184</v>
@@ -13469,7 +13469,7 @@
         <v>3185.297</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>185</v>
@@ -13610,7 +13610,7 @@
         <v>745.46799999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>186</v>
@@ -13751,7 +13751,7 @@
         <v>6878.13</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>187</v>
@@ -13892,7 +13892,7 @@
         <v>17813.026999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>188</v>
@@ -14033,7 +14033,7 @@
         <v>831.91</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>189</v>
@@ -14174,7 +14174,7 @@
         <v>28720.38</v>
       </c>
     </row>
-    <row r="90" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>190</v>
@@ -14315,7 +14315,7 @@
         <v>15342.68</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>191</v>
@@ -14456,7 +14456,7 @@
         <v>6374.9650000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>192</v>
@@ -14597,7 +14597,7 @@
         <v>2688.433</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>193</v>
@@ -14738,7 +14738,7 @@
         <v>64.616</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>194</v>
@@ -14879,7 +14879,7 @@
         <v>769.70500000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>195</v>
@@ -15020,7 +15020,7 @@
         <v>3665.1930000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>196</v>
@@ -15161,7 +15161,7 @@
         <v>1301.271</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>197</v>
@@ -15302,7 +15302,7 @@
         <v>9774.2459999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>198</v>
@@ -15443,7 +15443,7 @@
         <v>6754.4040000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -15492,7 +15492,7 @@
       <c r="AT99" s="67"/>
       <c r="AU99" s="67"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
@@ -15542,7 +15542,7 @@
       <c r="AT100" s="76"/>
       <c r="AU100" s="76"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="AT101" s="76"/>
       <c r="AU101" s="76"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="AT102" s="76"/>
       <c r="AU102" s="76"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="AT103" s="76"/>
       <c r="AU103" s="76"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>203</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="AT104" s="76"/>
       <c r="AU104" s="76"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -15789,7 +15789,7 @@
       <c r="AT105" s="76"/>
       <c r="AU105" s="76"/>
     </row>
-    <row r="106" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -15837,7 +15837,7 @@
       <c r="AT106" s="76"/>
       <c r="AU106" s="76"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>204</v>
       </c>
@@ -15887,7 +15887,7 @@
       <c r="AT107" s="76"/>
       <c r="AU107" s="76"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -15935,7 +15935,7 @@
       <c r="AT108" s="76"/>
       <c r="AU108" s="76"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>206</v>
       </c>
@@ -15985,7 +15985,7 @@
       <c r="AT109" s="76"/>
       <c r="AU109" s="76"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>207</v>
       </c>
@@ -16035,7 +16035,7 @@
       <c r="AT110" s="76"/>
       <c r="AU110" s="76"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>208</v>
       </c>
@@ -16085,7 +16085,7 @@
       <c r="AT111" s="76"/>
       <c r="AU111" s="76"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>205</v>
       </c>
@@ -16135,7 +16135,7 @@
       <c r="AT112" s="76"/>
       <c r="AU112" s="76"/>
     </row>
-    <row r="113" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -16185,12 +16185,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9F8F6659-E4F1-4FCE-B303-2932AD3A9225}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{ECDACB20-65EF-4A80-9D64-F39419ED86C5}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{77DA6A86-6E9F-4CBF-92F3-460CB191D419}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{AA2E54CB-D52F-482B-AC0B-8CEEEF0920A7}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{1583F82E-C4B0-434D-8BFE-7C06057DE755}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{DC14F795-B20E-4764-BF29-428EB1CF570A}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{FE012D70-CCEF-42DE-AE43-6C00649163E2}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{77935644-227C-4A82-9409-F7A5219B8B12}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{987F07C1-79EA-4335-9ADB-0F8656744B64}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{5EA03418-19E7-494C-91D1-C92CEF55FA14}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{16ED0650-2F4D-4063-B22F-AB9BB4B527BF}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{020C2E62-8AE2-481C-8468-DF333CB31377}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab33.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab33.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED44366-9AD5-4950-ACFC-610AC2C67A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61EC493-9F02-411C-BB03-64C92AC72622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{211E4FFF-ED7E-44BE-A8EA-EBC576CBA921}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{4F1EA104-65F6-46B9-9204-BF20272E38A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab33'!$A$2:$I$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab33'!$A$1:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab33'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab33'!$A$1:$J$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,156 +37,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="209">
-  <si>
-    <t>Table 33: Employment by occupation</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Total workers, both sexes, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - agriculture, forestry and fishing, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - mining and quarrying, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - manufacturing, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - utilities, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - construction, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - wholesale and retail trade, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - transport, storage and communicatoin, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - accomodation and food service, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - finance and insurance, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - real estate and business administration, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - public administration, defence and social security, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - education, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - health and social work, 2020</t>
-  </si>
-  <si>
-    <t>Total workers - other services, 2020</t>
-  </si>
-  <si>
-    <t>Female workers, both sexes, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - agriculture, forestry and fishing, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - mining and quarrying, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - manufacturing, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - utilities, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - construction, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - wholesale and retail trade, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - transport, storage and communicatoin, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - accomodation and food service, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - finance and insurance, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - real estate and business administration, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - public administration, defence and social security, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - education, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - health and social work, 2020</t>
-  </si>
-  <si>
-    <t>Female workers - other services, 2020</t>
-  </si>
-  <si>
-    <t>Male workers, both sexes, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - agriculture, forestry and fishing, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - mining and quarrying, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - manufacturing, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - utilities, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - construction, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - wholesale and retail trade, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - transport, storage and communicatoin, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - accomodation and food service, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - finance and insurance, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - real estate and business administration, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - public administration, defence and social security, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - education, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - health and social work, 2020</t>
-  </si>
-  <si>
-    <t>Male workers - other services, 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="211">
+  <si>
+    <t>Tableau 33 : Emploi par profession</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Total des travailleurs, les deux sexes, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - agriculture, foresterie et pêche, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - mines et carrières, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - secteur manufacturier, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - services publics, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - construction, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - commerce de gros et de détail, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - transport, stockage et communication, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - hébergement et restauration, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - finance et assurance, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - immobilier et administration des affaires, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - administration publique, défense et sécurité sociale, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - éducation, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - santé et travail social, 2020</t>
+  </si>
+  <si>
+    <t>Total des travailleurs - autres services, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - agriculture, foresterie et pêche, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - mines et carrières, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - secteur manufacturier, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - services publics, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - construction, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - commerce de gros et de détail, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - transport, stockage et communication, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - hébergement et restauration, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - finance et assurance, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - immobilier et administration des affaires, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - administration publique, défense et sécurité sociale, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - éducation, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - santé et travail social, 2020</t>
+  </si>
+  <si>
+    <t>Travailleuses - autres services, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - agriculture, foresterie et pêche, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - mines et carrières, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - secteur manufacturier, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - services publics, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - construction, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - commerce de gros et de détail, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - transport, stockage et communication, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - hébergement et restauration, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - finance et assurance, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - immobilier et administration des affaires, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - administration publique, défense et sécurité sociale, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - éducation, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - santé et travail social, 2020</t>
+  </si>
+  <si>
+    <t>Travailleurs masculins - autres services, 2020</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -222,19 +222,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -243,7 +243,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -255,58 +258,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -318,13 +321,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -342,7 +345,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -363,79 +366,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -447,7 +450,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -459,7 +462,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -471,13 +474,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -507,7 +510,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -522,22 +525,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -546,19 +549,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -576,104 +579,110 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Organisation internationale du travail – ILOSTAT (consulté le 09/09/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,16 +814,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1041,7 +1040,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,49 +1070,49 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,61 +1121,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,13 +1187,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,58 +1202,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,11 +1265,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1553,57 +1555,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706F9DCD-E2E2-4884-86ED-03AF5BF4B00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F9C9B-82FE-459C-8241-27EBF70F0C59}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AU113"/>
+  <dimension ref="A1:AU115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" style="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.26953125" style="80" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.453125" style="80" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.453125" style="80" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.26953125" style="80" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.54296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.1796875" style="80" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1656,7 +1658,7 @@
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
     </row>
-    <row r="2" spans="1:47" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:47" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3230,9 +3232,11 @@
       </c>
     </row>
     <row r="13" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="28">
         <v>62370.807000000001</v>
@@ -3372,10 +3376,10 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="21">
         <v>5202.5829999999996</v>
@@ -3515,10 +3519,10 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="21">
         <v>9542.375</v>
@@ -3658,10 +3662,10 @@
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="21">
         <v>1758.55</v>
@@ -3801,10 +3805,10 @@
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="32">
         <v>5230.0330000000004</v>
@@ -3944,10 +3948,10 @@
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="32">
         <v>1743.0989999999999</v>
@@ -4087,10 +4091,10 @@
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="15">
         <v>31095.866000000002</v>
@@ -4230,10 +4234,10 @@
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="32">
         <v>561.08699999999999</v>
@@ -4373,10 +4377,10 @@
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="32">
         <v>553.94200000000001</v>
@@ -4516,10 +4520,10 @@
     </row>
     <row r="22" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="36">
         <v>27.236000000000001</v>
@@ -4658,9 +4662,11 @@
       </c>
     </row>
     <row r="23" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="28">
         <v>55714.771000000001</v>
@@ -4800,10 +4806,10 @@
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="40">
         <v>231.95</v>
@@ -4943,10 +4949,10 @@
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="21">
         <v>171.63399999999999</v>
@@ -5086,10 +5092,10 @@
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="21">
         <v>1419.7</v>
@@ -5229,10 +5235,10 @@
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="21">
         <v>47150.656000000003</v>
@@ -5372,10 +5378,10 @@
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="21">
         <v>20060.089</v>
@@ -5515,10 +5521,10 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="21">
         <v>14101.787</v>
@@ -5658,10 +5664,10 @@
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="21">
         <v>549.75400000000002</v>
@@ -5801,10 +5807,10 @@
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="21">
         <v>4392.0479999999998</v>
@@ -5944,153 +5950,153 @@
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AD32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF32" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG32" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AP32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AQ32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AS32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AT32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AU32" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="21">
         <v>2395.7170000000001</v>
@@ -6230,10 +6236,10 @@
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="32">
         <v>3864.1930000000002</v>
@@ -6373,10 +6379,10 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="21">
         <v>9440.3819999999996</v>
@@ -6516,10 +6522,10 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="21">
         <v>26985.255000000001</v>
@@ -6659,10 +6665,10 @@
     </row>
     <row r="37" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="23">
         <v>18419.192999999999</v>
@@ -6801,9 +6807,11 @@
       </c>
     </row>
     <row r="38" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" s="28">
         <v>149182.35800000001</v>
@@ -6943,10 +6951,10 @@
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" s="44">
         <v>10353.392</v>
@@ -7086,10 +7094,10 @@
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" s="21">
         <v>27851.053</v>
@@ -7229,10 +7237,10 @@
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" s="32">
         <v>1942.3620000000001</v>
@@ -7372,10 +7380,10 @@
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="32">
         <v>934.25099999999998</v>
@@ -7515,10 +7523,10 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" s="21">
         <v>10576.611000000001</v>
@@ -7658,10 +7666,10 @@
     </row>
     <row r="44" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" s="36">
         <v>3470.0830000000001</v>
@@ -7800,9 +7808,11 @@
       </c>
     </row>
     <row r="45" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C45" s="28">
         <v>55127.752</v>
@@ -7942,10 +7952,10 @@
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="40">
         <v>5521.665</v>
@@ -8085,10 +8095,10 @@
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" s="21">
         <v>5880.5619999999999</v>
@@ -8228,10 +8238,10 @@
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="32">
         <v>172.91800000000001</v>
@@ -8371,10 +8381,10 @@
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="21">
         <v>10589.539000000001</v>
@@ -8514,10 +8524,10 @@
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="21">
         <v>656.46400000000006</v>
@@ -8657,10 +8667,10 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" s="15">
         <v>12484.173000000001</v>
@@ -8800,10 +8810,10 @@
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C52" s="21">
         <v>3807.9670000000001</v>
@@ -8943,10 +8953,10 @@
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" s="21">
         <v>722.74</v>
@@ -9086,10 +9096,10 @@
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" s="21">
         <v>2201.83</v>
@@ -9229,10 +9239,10 @@
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" s="21">
         <v>7274.11</v>
@@ -9372,10 +9382,10 @@
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C56" s="21">
         <v>8850.5959999999995</v>
@@ -9515,10 +9525,10 @@
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" s="21">
         <v>93971.97</v>
@@ -9658,10 +9668,10 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C58" s="21">
         <v>4859.0739999999996</v>
@@ -9801,10 +9811,10 @@
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" s="21">
         <v>2448.0219999999999</v>
@@ -9944,10 +9954,10 @@
     </row>
     <row r="60" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C60" s="23">
         <v>2884.1489999999999</v>
@@ -10086,9 +10096,11 @@
       </c>
     </row>
     <row r="61" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="26"/>
+      <c r="A61" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="B61" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" s="28">
         <v>162325.77900000001</v>
@@ -10227,9 +10239,11 @@
       </c>
     </row>
     <row r="62" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
+      <c r="A62" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="B62" s="49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="50">
         <v>484721.467</v>
@@ -10368,9 +10382,11 @@
       </c>
     </row>
     <row r="63" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="48"/>
+      <c r="A63" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="B63" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C63" s="50">
         <v>2762102.6329999999</v>
@@ -10509,9 +10525,11 @@
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A64" s="53"/>
+      <c r="A64" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B64" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64" s="55">
         <v>261427.14799999999</v>
@@ -10650,9 +10668,11 @@
       </c>
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A65" s="53"/>
+      <c r="A65" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B65" s="58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" s="59">
         <v>1789782.415</v>
@@ -10791,9 +10811,11 @@
       </c>
     </row>
     <row r="66" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="53"/>
+      <c r="A66" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B66" s="62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C66" s="63">
         <v>3246824.1</v>
@@ -10932,9 +10954,11 @@
       </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A67" s="53"/>
+      <c r="A67" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B67" s="58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C67" s="59">
         <v>206788.20600000001</v>
@@ -11073,9 +11097,11 @@
       </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A68" s="53"/>
+      <c r="A68" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B68" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" s="59">
         <v>225373.35699999999</v>
@@ -11214,9 +11240,11 @@
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A69" s="53"/>
+      <c r="A69" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B69" s="58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C69" s="59">
         <v>110019.227</v>
@@ -11355,9 +11383,11 @@
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A70" s="53"/>
+      <c r="A70" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B70" s="58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C70" s="59">
         <v>71556.84</v>
@@ -11496,9 +11526,11 @@
       </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A71" s="53"/>
+      <c r="A71" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B71" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C71" s="59">
         <v>162325.77900000001</v>
@@ -11637,9 +11669,11 @@
       </c>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A72" s="53"/>
+      <c r="A72" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B72" s="58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="59">
         <v>101501.864</v>
@@ -11778,9 +11812,11 @@
       </c>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A73" s="53"/>
+      <c r="A73" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B73" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C73" s="59">
         <v>135335.41899999999</v>
@@ -11919,9 +11955,11 @@
       </c>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A74" s="53"/>
+      <c r="A74" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B74" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" s="59">
         <v>27276.699000000001</v>
@@ -12060,9 +12098,11 @@
       </c>
     </row>
     <row r="75" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="53"/>
+      <c r="A75" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B75" s="58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" s="66">
         <v>25055.115000000002</v>
@@ -12201,9 +12241,11 @@
       </c>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A76" s="53"/>
+      <c r="A76" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B76" s="69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C76" s="70">
         <v>322425.435</v>
@@ -12342,9 +12384,11 @@
       </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A77" s="53"/>
+      <c r="A77" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B77" s="58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C77" s="59">
         <v>177502.66699999999</v>
@@ -12483,9 +12527,11 @@
       </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A78" s="53"/>
+      <c r="A78" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B78" s="58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" s="59">
         <v>200413.18700000001</v>
@@ -12624,9 +12670,11 @@
       </c>
     </row>
     <row r="79" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="53"/>
+      <c r="A79" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B79" s="62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" s="63">
         <v>626368.49199999997</v>
@@ -12765,9 +12813,11 @@
       </c>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A80" s="53"/>
+      <c r="A80" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B80" s="69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" s="70">
         <v>36805.298000000003</v>
@@ -12906,9 +12956,11 @@
       </c>
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A81" s="53"/>
+      <c r="A81" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B81" s="58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C81" s="59">
         <v>187680.64799999999</v>
@@ -13047,9 +13099,11 @@
       </c>
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A82" s="53"/>
+      <c r="A82" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B82" s="58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" s="59">
         <v>447916.16899999999</v>
@@ -13188,9 +13242,11 @@
       </c>
     </row>
     <row r="83" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="53"/>
+      <c r="A83" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B83" s="62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="63">
         <v>2574421.9849999999</v>
@@ -13329,9 +13385,11 @@
       </c>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A84" s="53"/>
+      <c r="A84" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B84" s="69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" s="70">
         <v>148071.90299999999</v>
@@ -13470,9 +13528,11 @@
       </c>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A85" s="53"/>
+      <c r="A85" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B85" s="73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" s="59">
         <v>34642.999000000003</v>
@@ -13611,9 +13671,11 @@
       </c>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A86" s="53"/>
+      <c r="A86" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B86" s="58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C86" s="59">
         <v>257473.00099999999</v>
@@ -13752,9 +13814,11 @@
       </c>
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A87" s="53"/>
+      <c r="A87" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B87" s="58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C87" s="59">
         <v>816780.67299999995</v>
@@ -13893,9 +13957,11 @@
       </c>
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A88" s="53"/>
+      <c r="A88" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B88" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" s="59">
         <v>32025.906999999999</v>
@@ -14034,9 +14100,11 @@
       </c>
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A89" s="53"/>
+      <c r="A89" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B89" s="58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" s="59">
         <v>1256542.767</v>
@@ -14175,9 +14243,11 @@
       </c>
     </row>
     <row r="90" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="53"/>
+      <c r="A90" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B90" s="62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="63">
         <v>644275.12699999998</v>
@@ -14316,9 +14386,11 @@
       </c>
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A91" s="53"/>
+      <c r="A91" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B91" s="69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C91" s="70">
         <v>256030.427</v>
@@ -14457,9 +14529,11 @@
       </c>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A92" s="53"/>
+      <c r="A92" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B92" s="58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C92" s="59">
         <v>128344.66899999999</v>
@@ -14598,9 +14672,11 @@
       </c>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A93" s="53"/>
+      <c r="A93" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B93" s="58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C93" s="59">
         <v>1704.598</v>
@@ -14739,9 +14815,11 @@
       </c>
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A94" s="53"/>
+      <c r="A94" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B94" s="58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C94" s="59">
         <v>24618.735000000001</v>
@@ -14880,9 +14958,11 @@
       </c>
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A95" s="53"/>
+      <c r="A95" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B95" s="58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95" s="59">
         <v>128358.67</v>
@@ -15021,9 +15101,11 @@
       </c>
     </row>
     <row r="96" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="53"/>
+      <c r="A96" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B96" s="62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C96" s="63">
         <v>65447.216999999997</v>
@@ -15162,9 +15244,11 @@
       </c>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A97" s="53"/>
+      <c r="A97" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B97" s="69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97" s="70">
         <v>389510.27100000001</v>
@@ -15303,9 +15387,11 @@
       </c>
     </row>
     <row r="98" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="53"/>
+      <c r="A98" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="B98" s="62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C98" s="63">
         <v>274890.51699999999</v>
@@ -15446,754 +15532,837 @@
     <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="67"/>
-      <c r="O99" s="67"/>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="67"/>
-      <c r="R99" s="67"/>
-      <c r="S99" s="67"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="67"/>
-      <c r="Z99" s="67"/>
-      <c r="AA99" s="67"/>
-      <c r="AB99" s="67"/>
-      <c r="AC99" s="67"/>
-      <c r="AD99" s="67"/>
-      <c r="AE99" s="67"/>
-      <c r="AF99" s="67"/>
-      <c r="AG99" s="67"/>
-      <c r="AH99" s="67"/>
-      <c r="AI99" s="67"/>
-      <c r="AJ99" s="67"/>
-      <c r="AK99" s="67"/>
-      <c r="AL99" s="67"/>
-      <c r="AM99" s="67"/>
-      <c r="AN99" s="67"/>
-      <c r="AO99" s="67"/>
-      <c r="AP99" s="67"/>
-      <c r="AQ99" s="67"/>
-      <c r="AR99" s="67"/>
-      <c r="AS99" s="67"/>
-      <c r="AT99" s="67"/>
-      <c r="AU99" s="67"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="76"/>
+      <c r="O99" s="76"/>
+      <c r="P99" s="76"/>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="76"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="76"/>
+      <c r="U99" s="76"/>
+      <c r="V99" s="76"/>
+      <c r="W99" s="76"/>
+      <c r="X99" s="76"/>
+      <c r="Y99" s="76"/>
+      <c r="Z99" s="76"/>
+      <c r="AA99" s="76"/>
+      <c r="AB99" s="76"/>
+      <c r="AC99" s="76"/>
+      <c r="AD99" s="76"/>
+      <c r="AE99" s="76"/>
+      <c r="AF99" s="76"/>
+      <c r="AG99" s="76"/>
+      <c r="AH99" s="76"/>
+      <c r="AI99" s="76"/>
+      <c r="AJ99" s="76"/>
+      <c r="AK99" s="76"/>
+      <c r="AL99" s="76"/>
+      <c r="AM99" s="76"/>
+      <c r="AN99" s="76"/>
+      <c r="AO99" s="76"/>
+      <c r="AP99" s="76"/>
+      <c r="AQ99" s="76"/>
+      <c r="AR99" s="76"/>
+      <c r="AS99" s="76"/>
+      <c r="AT99" s="76"/>
+      <c r="AU99" s="76"/>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
-      <c r="K100" s="76"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
-      <c r="Q100" s="76"/>
-      <c r="R100" s="76"/>
-      <c r="S100" s="76"/>
-      <c r="T100" s="76"/>
-      <c r="U100" s="76"/>
-      <c r="V100" s="76"/>
-      <c r="W100" s="76"/>
-      <c r="X100" s="76"/>
-      <c r="Y100" s="76"/>
-      <c r="Z100" s="76"/>
-      <c r="AA100" s="76"/>
-      <c r="AB100" s="76"/>
-      <c r="AC100" s="76"/>
-      <c r="AD100" s="76"/>
-      <c r="AE100" s="76"/>
-      <c r="AF100" s="76"/>
-      <c r="AG100" s="76"/>
-      <c r="AH100" s="76"/>
-      <c r="AI100" s="76"/>
-      <c r="AJ100" s="76"/>
-      <c r="AK100" s="76"/>
-      <c r="AL100" s="76"/>
-      <c r="AM100" s="76"/>
-      <c r="AN100" s="76"/>
-      <c r="AO100" s="76"/>
-      <c r="AP100" s="76"/>
-      <c r="AQ100" s="76"/>
-      <c r="AR100" s="76"/>
-      <c r="AS100" s="76"/>
-      <c r="AT100" s="76"/>
-      <c r="AU100" s="76"/>
+        <v>200</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
+      <c r="AA100" s="77"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="77"/>
+      <c r="AI100" s="77"/>
+      <c r="AJ100" s="77"/>
+      <c r="AK100" s="77"/>
+      <c r="AL100" s="77"/>
+      <c r="AM100" s="77"/>
+      <c r="AN100" s="77"/>
+      <c r="AO100" s="77"/>
+      <c r="AP100" s="77"/>
+      <c r="AQ100" s="77"/>
+      <c r="AR100" s="77"/>
+      <c r="AS100" s="77"/>
+      <c r="AT100" s="77"/>
+      <c r="AU100" s="77"/>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="76"/>
-      <c r="R101" s="76"/>
-      <c r="S101" s="76"/>
-      <c r="T101" s="76"/>
-      <c r="U101" s="76"/>
-      <c r="V101" s="76"/>
-      <c r="W101" s="76"/>
-      <c r="X101" s="76"/>
-      <c r="Y101" s="76"/>
-      <c r="Z101" s="76"/>
-      <c r="AA101" s="76"/>
-      <c r="AB101" s="76"/>
-      <c r="AC101" s="76"/>
-      <c r="AD101" s="76"/>
-      <c r="AE101" s="76"/>
-      <c r="AF101" s="76"/>
-      <c r="AG101" s="76"/>
-      <c r="AH101" s="76"/>
-      <c r="AI101" s="76"/>
-      <c r="AJ101" s="76"/>
-      <c r="AK101" s="76"/>
-      <c r="AL101" s="76"/>
-      <c r="AM101" s="76"/>
-      <c r="AN101" s="76"/>
-      <c r="AO101" s="76"/>
-      <c r="AP101" s="76"/>
-      <c r="AQ101" s="76"/>
-      <c r="AR101" s="76"/>
-      <c r="AS101" s="76"/>
-      <c r="AT101" s="76"/>
-      <c r="AU101" s="76"/>
+        <v>201</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
+      <c r="AA101" s="77"/>
+      <c r="AB101" s="77"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="77"/>
+      <c r="AI101" s="77"/>
+      <c r="AJ101" s="77"/>
+      <c r="AK101" s="77"/>
+      <c r="AL101" s="77"/>
+      <c r="AM101" s="77"/>
+      <c r="AN101" s="77"/>
+      <c r="AO101" s="77"/>
+      <c r="AP101" s="77"/>
+      <c r="AQ101" s="77"/>
+      <c r="AR101" s="77"/>
+      <c r="AS101" s="77"/>
+      <c r="AT101" s="77"/>
+      <c r="AU101" s="77"/>
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="76"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
-      <c r="R102" s="76"/>
-      <c r="S102" s="76"/>
-      <c r="T102" s="76"/>
-      <c r="U102" s="76"/>
-      <c r="V102" s="76"/>
-      <c r="W102" s="76"/>
-      <c r="X102" s="76"/>
-      <c r="Y102" s="76"/>
-      <c r="Z102" s="76"/>
-      <c r="AA102" s="76"/>
-      <c r="AB102" s="76"/>
-      <c r="AC102" s="76"/>
-      <c r="AD102" s="76"/>
-      <c r="AE102" s="76"/>
-      <c r="AF102" s="76"/>
-      <c r="AG102" s="76"/>
-      <c r="AH102" s="76"/>
-      <c r="AI102" s="76"/>
-      <c r="AJ102" s="76"/>
-      <c r="AK102" s="76"/>
-      <c r="AL102" s="76"/>
-      <c r="AM102" s="76"/>
-      <c r="AN102" s="76"/>
-      <c r="AO102" s="76"/>
-      <c r="AP102" s="76"/>
-      <c r="AQ102" s="76"/>
-      <c r="AR102" s="76"/>
-      <c r="AS102" s="76"/>
-      <c r="AT102" s="76"/>
-      <c r="AU102" s="76"/>
+        <v>202</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="77"/>
+      <c r="V102" s="77"/>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
+      <c r="AA102" s="77"/>
+      <c r="AB102" s="77"/>
+      <c r="AC102" s="77"/>
+      <c r="AD102" s="77"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="77"/>
+      <c r="AG102" s="77"/>
+      <c r="AH102" s="77"/>
+      <c r="AI102" s="77"/>
+      <c r="AJ102" s="77"/>
+      <c r="AK102" s="77"/>
+      <c r="AL102" s="77"/>
+      <c r="AM102" s="77"/>
+      <c r="AN102" s="77"/>
+      <c r="AO102" s="77"/>
+      <c r="AP102" s="77"/>
+      <c r="AQ102" s="77"/>
+      <c r="AR102" s="77"/>
+      <c r="AS102" s="77"/>
+      <c r="AT102" s="77"/>
+      <c r="AU102" s="77"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76"/>
-      <c r="S103" s="76"/>
-      <c r="T103" s="76"/>
-      <c r="U103" s="76"/>
-      <c r="V103" s="76"/>
-      <c r="W103" s="76"/>
-      <c r="X103" s="76"/>
-      <c r="Y103" s="76"/>
-      <c r="Z103" s="76"/>
-      <c r="AA103" s="76"/>
-      <c r="AB103" s="76"/>
-      <c r="AC103" s="76"/>
-      <c r="AD103" s="76"/>
-      <c r="AE103" s="76"/>
-      <c r="AF103" s="76"/>
-      <c r="AG103" s="76"/>
-      <c r="AH103" s="76"/>
-      <c r="AI103" s="76"/>
-      <c r="AJ103" s="76"/>
-      <c r="AK103" s="76"/>
-      <c r="AL103" s="76"/>
-      <c r="AM103" s="76"/>
-      <c r="AN103" s="76"/>
-      <c r="AO103" s="76"/>
-      <c r="AP103" s="76"/>
-      <c r="AQ103" s="76"/>
-      <c r="AR103" s="76"/>
-      <c r="AS103" s="76"/>
-      <c r="AT103" s="76"/>
-      <c r="AU103" s="76"/>
+        <v>203</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
+      <c r="AA103" s="77"/>
+      <c r="AB103" s="77"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="77"/>
+      <c r="AG103" s="77"/>
+      <c r="AH103" s="77"/>
+      <c r="AI103" s="77"/>
+      <c r="AJ103" s="77"/>
+      <c r="AK103" s="77"/>
+      <c r="AL103" s="77"/>
+      <c r="AM103" s="77"/>
+      <c r="AN103" s="77"/>
+      <c r="AO103" s="77"/>
+      <c r="AP103" s="77"/>
+      <c r="AQ103" s="77"/>
+      <c r="AR103" s="77"/>
+      <c r="AS103" s="77"/>
+      <c r="AT103" s="77"/>
+      <c r="AU103" s="77"/>
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="76"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
-      <c r="R104" s="76"/>
-      <c r="S104" s="76"/>
-      <c r="T104" s="76"/>
-      <c r="U104" s="76"/>
-      <c r="V104" s="76"/>
-      <c r="W104" s="76"/>
-      <c r="X104" s="76"/>
-      <c r="Y104" s="76"/>
-      <c r="Z104" s="76"/>
-      <c r="AA104" s="76"/>
-      <c r="AB104" s="76"/>
-      <c r="AC104" s="76"/>
-      <c r="AD104" s="76"/>
-      <c r="AE104" s="76"/>
-      <c r="AF104" s="76"/>
-      <c r="AG104" s="76"/>
-      <c r="AH104" s="76"/>
-      <c r="AI104" s="76"/>
-      <c r="AJ104" s="76"/>
-      <c r="AK104" s="76"/>
-      <c r="AL104" s="76"/>
-      <c r="AM104" s="76"/>
-      <c r="AN104" s="76"/>
-      <c r="AO104" s="76"/>
-      <c r="AP104" s="76"/>
-      <c r="AQ104" s="76"/>
-      <c r="AR104" s="76"/>
-      <c r="AS104" s="76"/>
-      <c r="AT104" s="76"/>
-      <c r="AU104" s="76"/>
+        <v>204</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="77"/>
+      <c r="AI104" s="77"/>
+      <c r="AJ104" s="77"/>
+      <c r="AK104" s="77"/>
+      <c r="AL104" s="77"/>
+      <c r="AM104" s="77"/>
+      <c r="AN104" s="77"/>
+      <c r="AO104" s="77"/>
+      <c r="AP104" s="77"/>
+      <c r="AQ104" s="77"/>
+      <c r="AR104" s="77"/>
+      <c r="AS104" s="77"/>
+      <c r="AT104" s="77"/>
+      <c r="AU104" s="77"/>
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="R105" s="76"/>
-      <c r="S105" s="76"/>
-      <c r="T105" s="76"/>
-      <c r="U105" s="76"/>
-      <c r="V105" s="76"/>
-      <c r="W105" s="76"/>
-      <c r="X105" s="76"/>
-      <c r="Y105" s="76"/>
-      <c r="Z105" s="76"/>
-      <c r="AA105" s="76"/>
-      <c r="AB105" s="76"/>
-      <c r="AC105" s="76"/>
-      <c r="AD105" s="76"/>
-      <c r="AE105" s="76"/>
-      <c r="AF105" s="76"/>
-      <c r="AG105" s="76"/>
-      <c r="AH105" s="76"/>
-      <c r="AI105" s="76"/>
-      <c r="AJ105" s="76"/>
-      <c r="AK105" s="76"/>
-      <c r="AL105" s="76"/>
-      <c r="AM105" s="76"/>
-      <c r="AN105" s="76"/>
-      <c r="AO105" s="76"/>
-      <c r="AP105" s="76"/>
-      <c r="AQ105" s="76"/>
-      <c r="AR105" s="76"/>
-      <c r="AS105" s="76"/>
-      <c r="AT105" s="76"/>
-      <c r="AU105" s="76"/>
+      <c r="A105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
+      <c r="AA105" s="77"/>
+      <c r="AB105" s="77"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="77"/>
+      <c r="AI105" s="77"/>
+      <c r="AJ105" s="77"/>
+      <c r="AK105" s="77"/>
+      <c r="AL105" s="77"/>
+      <c r="AM105" s="77"/>
+      <c r="AN105" s="77"/>
+      <c r="AO105" s="77"/>
+      <c r="AP105" s="77"/>
+      <c r="AQ105" s="77"/>
+      <c r="AR105" s="77"/>
+      <c r="AS105" s="77"/>
+      <c r="AT105" s="77"/>
+      <c r="AU105" s="77"/>
     </row>
     <row r="106" spans="1:47" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="77"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
-      <c r="R106" s="76"/>
-      <c r="S106" s="76"/>
-      <c r="T106" s="76"/>
-      <c r="U106" s="76"/>
-      <c r="V106" s="76"/>
-      <c r="W106" s="76"/>
-      <c r="X106" s="76"/>
-      <c r="Y106" s="76"/>
-      <c r="Z106" s="76"/>
-      <c r="AA106" s="76"/>
-      <c r="AB106" s="76"/>
-      <c r="AC106" s="76"/>
-      <c r="AD106" s="76"/>
-      <c r="AE106" s="76"/>
-      <c r="AF106" s="76"/>
-      <c r="AG106" s="76"/>
-      <c r="AH106" s="76"/>
-      <c r="AI106" s="76"/>
-      <c r="AJ106" s="76"/>
-      <c r="AK106" s="76"/>
-      <c r="AL106" s="76"/>
-      <c r="AM106" s="76"/>
-      <c r="AN106" s="76"/>
-      <c r="AO106" s="76"/>
-      <c r="AP106" s="76"/>
-      <c r="AQ106" s="76"/>
-      <c r="AR106" s="76"/>
-      <c r="AS106" s="76"/>
-      <c r="AT106" s="76"/>
-      <c r="AU106" s="76"/>
+      <c r="A106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="78"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
+      <c r="Y106" s="77"/>
+      <c r="Z106" s="77"/>
+      <c r="AA106" s="77"/>
+      <c r="AB106" s="77"/>
+      <c r="AC106" s="77"/>
+      <c r="AD106" s="77"/>
+      <c r="AE106" s="77"/>
+      <c r="AF106" s="77"/>
+      <c r="AG106" s="77"/>
+      <c r="AH106" s="77"/>
+      <c r="AI106" s="77"/>
+      <c r="AJ106" s="77"/>
+      <c r="AK106" s="77"/>
+      <c r="AL106" s="77"/>
+      <c r="AM106" s="77"/>
+      <c r="AN106" s="77"/>
+      <c r="AO106" s="77"/>
+      <c r="AP106" s="77"/>
+      <c r="AQ106" s="77"/>
+      <c r="AR106" s="77"/>
+      <c r="AS106" s="77"/>
+      <c r="AT106" s="77"/>
+      <c r="AU106" s="77"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="76"/>
-      <c r="O107" s="76"/>
-      <c r="P107" s="76"/>
-      <c r="Q107" s="76"/>
-      <c r="R107" s="76"/>
-      <c r="S107" s="76"/>
-      <c r="T107" s="76"/>
-      <c r="U107" s="76"/>
-      <c r="V107" s="76"/>
-      <c r="W107" s="76"/>
-      <c r="X107" s="76"/>
-      <c r="Y107" s="76"/>
-      <c r="Z107" s="76"/>
-      <c r="AA107" s="76"/>
-      <c r="AB107" s="76"/>
-      <c r="AC107" s="76"/>
-      <c r="AD107" s="76"/>
-      <c r="AE107" s="76"/>
-      <c r="AF107" s="76"/>
-      <c r="AG107" s="76"/>
-      <c r="AH107" s="76"/>
-      <c r="AI107" s="76"/>
-      <c r="AJ107" s="76"/>
-      <c r="AK107" s="76"/>
-      <c r="AL107" s="76"/>
-      <c r="AM107" s="76"/>
-      <c r="AN107" s="76"/>
-      <c r="AO107" s="76"/>
-      <c r="AP107" s="76"/>
-      <c r="AQ107" s="76"/>
-      <c r="AR107" s="76"/>
-      <c r="AS107" s="76"/>
-      <c r="AT107" s="76"/>
-      <c r="AU107" s="76"/>
+    <row r="107" spans="1:47" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
+      <c r="AA107" s="77"/>
+      <c r="AB107" s="77"/>
+      <c r="AC107" s="77"/>
+      <c r="AD107" s="77"/>
+      <c r="AE107" s="77"/>
+      <c r="AF107" s="77"/>
+      <c r="AG107" s="77"/>
+      <c r="AH107" s="77"/>
+      <c r="AI107" s="77"/>
+      <c r="AJ107" s="77"/>
+      <c r="AK107" s="77"/>
+      <c r="AL107" s="77"/>
+      <c r="AM107" s="77"/>
+      <c r="AN107" s="77"/>
+      <c r="AO107" s="77"/>
+      <c r="AP107" s="77"/>
+      <c r="AQ107" s="77"/>
+      <c r="AR107" s="77"/>
+      <c r="AS107" s="77"/>
+      <c r="AT107" s="77"/>
+      <c r="AU107" s="77"/>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="O108" s="76"/>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="76"/>
-      <c r="R108" s="76"/>
-      <c r="S108" s="76"/>
-      <c r="T108" s="76"/>
-      <c r="U108" s="76"/>
-      <c r="V108" s="76"/>
-      <c r="W108" s="76"/>
-      <c r="X108" s="76"/>
-      <c r="Y108" s="76"/>
-      <c r="Z108" s="76"/>
-      <c r="AA108" s="76"/>
-      <c r="AB108" s="76"/>
-      <c r="AC108" s="76"/>
-      <c r="AD108" s="76"/>
-      <c r="AE108" s="76"/>
-      <c r="AF108" s="76"/>
-      <c r="AG108" s="76"/>
-      <c r="AH108" s="76"/>
-      <c r="AI108" s="76"/>
-      <c r="AJ108" s="76"/>
-      <c r="AK108" s="76"/>
-      <c r="AL108" s="76"/>
-      <c r="AM108" s="76"/>
-      <c r="AN108" s="76"/>
-      <c r="AO108" s="76"/>
-      <c r="AP108" s="76"/>
-      <c r="AQ108" s="76"/>
-      <c r="AR108" s="76"/>
-      <c r="AS108" s="76"/>
-      <c r="AT108" s="76"/>
-      <c r="AU108" s="76"/>
+      <c r="B108" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+      <c r="W108" s="77"/>
+      <c r="X108" s="77"/>
+      <c r="Y108" s="77"/>
+      <c r="Z108" s="77"/>
+      <c r="AA108" s="77"/>
+      <c r="AB108" s="77"/>
+      <c r="AC108" s="77"/>
+      <c r="AD108" s="77"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="77"/>
+      <c r="AG108" s="77"/>
+      <c r="AH108" s="77"/>
+      <c r="AI108" s="77"/>
+      <c r="AJ108" s="77"/>
+      <c r="AK108" s="77"/>
+      <c r="AL108" s="77"/>
+      <c r="AM108" s="77"/>
+      <c r="AN108" s="77"/>
+      <c r="AO108" s="77"/>
+      <c r="AP108" s="77"/>
+      <c r="AQ108" s="77"/>
+      <c r="AR108" s="77"/>
+      <c r="AS108" s="77"/>
+      <c r="AT108" s="77"/>
+      <c r="AU108" s="77"/>
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
-      <c r="S109" s="76"/>
-      <c r="T109" s="76"/>
-      <c r="U109" s="76"/>
-      <c r="V109" s="76"/>
-      <c r="W109" s="76"/>
-      <c r="X109" s="76"/>
-      <c r="Y109" s="76"/>
-      <c r="Z109" s="76"/>
-      <c r="AA109" s="76"/>
-      <c r="AB109" s="76"/>
-      <c r="AC109" s="76"/>
-      <c r="AD109" s="76"/>
-      <c r="AE109" s="76"/>
-      <c r="AF109" s="76"/>
-      <c r="AG109" s="76"/>
-      <c r="AH109" s="76"/>
-      <c r="AI109" s="76"/>
-      <c r="AJ109" s="76"/>
-      <c r="AK109" s="76"/>
-      <c r="AL109" s="76"/>
-      <c r="AM109" s="76"/>
-      <c r="AN109" s="76"/>
-      <c r="AO109" s="76"/>
-      <c r="AP109" s="76"/>
-      <c r="AQ109" s="76"/>
-      <c r="AR109" s="76"/>
-      <c r="AS109" s="76"/>
-      <c r="AT109" s="76"/>
-      <c r="AU109" s="76"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
+      <c r="AA109" s="77"/>
+      <c r="AB109" s="77"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="77"/>
+      <c r="AI109" s="77"/>
+      <c r="AJ109" s="77"/>
+      <c r="AK109" s="77"/>
+      <c r="AL109" s="77"/>
+      <c r="AM109" s="77"/>
+      <c r="AN109" s="77"/>
+      <c r="AO109" s="77"/>
+      <c r="AP109" s="77"/>
+      <c r="AQ109" s="77"/>
+      <c r="AR109" s="77"/>
+      <c r="AS109" s="77"/>
+      <c r="AT109" s="77"/>
+      <c r="AU109" s="77"/>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="O110" s="76"/>
-      <c r="P110" s="76"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="76"/>
-      <c r="S110" s="76"/>
-      <c r="T110" s="76"/>
-      <c r="U110" s="76"/>
-      <c r="V110" s="76"/>
-      <c r="W110" s="76"/>
-      <c r="X110" s="76"/>
-      <c r="Y110" s="76"/>
-      <c r="Z110" s="76"/>
-      <c r="AA110" s="76"/>
-      <c r="AB110" s="76"/>
-      <c r="AC110" s="76"/>
-      <c r="AD110" s="76"/>
-      <c r="AE110" s="76"/>
-      <c r="AF110" s="76"/>
-      <c r="AG110" s="76"/>
-      <c r="AH110" s="76"/>
-      <c r="AI110" s="76"/>
-      <c r="AJ110" s="76"/>
-      <c r="AK110" s="76"/>
-      <c r="AL110" s="76"/>
-      <c r="AM110" s="76"/>
-      <c r="AN110" s="76"/>
-      <c r="AO110" s="76"/>
-      <c r="AP110" s="76"/>
-      <c r="AQ110" s="76"/>
-      <c r="AR110" s="76"/>
-      <c r="AS110" s="76"/>
-      <c r="AT110" s="76"/>
-      <c r="AU110" s="76"/>
+      <c r="B110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="77"/>
+      <c r="V110" s="77"/>
+      <c r="W110" s="77"/>
+      <c r="X110" s="77"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+      <c r="AA110" s="77"/>
+      <c r="AB110" s="77"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="77"/>
+      <c r="AG110" s="77"/>
+      <c r="AH110" s="77"/>
+      <c r="AI110" s="77"/>
+      <c r="AJ110" s="77"/>
+      <c r="AK110" s="77"/>
+      <c r="AL110" s="77"/>
+      <c r="AM110" s="77"/>
+      <c r="AN110" s="77"/>
+      <c r="AO110" s="77"/>
+      <c r="AP110" s="77"/>
+      <c r="AQ110" s="77"/>
+      <c r="AR110" s="77"/>
+      <c r="AS110" s="77"/>
+      <c r="AT110" s="77"/>
+      <c r="AU110" s="77"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
-      <c r="K111" s="76"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="76"/>
-      <c r="N111" s="76"/>
-      <c r="O111" s="76"/>
-      <c r="P111" s="76"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="76"/>
-      <c r="S111" s="76"/>
-      <c r="T111" s="76"/>
-      <c r="U111" s="76"/>
-      <c r="V111" s="76"/>
-      <c r="W111" s="76"/>
-      <c r="X111" s="76"/>
-      <c r="Y111" s="76"/>
-      <c r="Z111" s="76"/>
-      <c r="AA111" s="76"/>
-      <c r="AB111" s="76"/>
-      <c r="AC111" s="76"/>
-      <c r="AD111" s="76"/>
-      <c r="AE111" s="76"/>
-      <c r="AF111" s="76"/>
-      <c r="AG111" s="76"/>
-      <c r="AH111" s="76"/>
-      <c r="AI111" s="76"/>
-      <c r="AJ111" s="76"/>
-      <c r="AK111" s="76"/>
-      <c r="AL111" s="76"/>
-      <c r="AM111" s="76"/>
-      <c r="AN111" s="76"/>
-      <c r="AO111" s="76"/>
-      <c r="AP111" s="76"/>
-      <c r="AQ111" s="76"/>
-      <c r="AR111" s="76"/>
-      <c r="AS111" s="76"/>
-      <c r="AT111" s="76"/>
-      <c r="AU111" s="76"/>
+      <c r="B111" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+      <c r="AA111" s="77"/>
+      <c r="AB111" s="77"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="77"/>
+      <c r="AE111" s="77"/>
+      <c r="AF111" s="77"/>
+      <c r="AG111" s="77"/>
+      <c r="AH111" s="77"/>
+      <c r="AI111" s="77"/>
+      <c r="AJ111" s="77"/>
+      <c r="AK111" s="77"/>
+      <c r="AL111" s="77"/>
+      <c r="AM111" s="77"/>
+      <c r="AN111" s="77"/>
+      <c r="AO111" s="77"/>
+      <c r="AP111" s="77"/>
+      <c r="AQ111" s="77"/>
+      <c r="AR111" s="77"/>
+      <c r="AS111" s="77"/>
+      <c r="AT111" s="77"/>
+      <c r="AU111" s="77"/>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="76"/>
-      <c r="N112" s="76"/>
-      <c r="O112" s="76"/>
-      <c r="P112" s="76"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="76"/>
-      <c r="S112" s="76"/>
-      <c r="T112" s="76"/>
-      <c r="U112" s="76"/>
-      <c r="V112" s="76"/>
-      <c r="W112" s="76"/>
-      <c r="X112" s="76"/>
-      <c r="Y112" s="76"/>
-      <c r="Z112" s="76"/>
-      <c r="AA112" s="76"/>
-      <c r="AB112" s="76"/>
-      <c r="AC112" s="76"/>
-      <c r="AD112" s="76"/>
-      <c r="AE112" s="76"/>
-      <c r="AF112" s="76"/>
-      <c r="AG112" s="76"/>
-      <c r="AH112" s="76"/>
-      <c r="AI112" s="76"/>
-      <c r="AJ112" s="76"/>
-      <c r="AK112" s="76"/>
-      <c r="AL112" s="76"/>
-      <c r="AM112" s="76"/>
-      <c r="AN112" s="76"/>
-      <c r="AO112" s="76"/>
-      <c r="AP112" s="76"/>
-      <c r="AQ112" s="76"/>
-      <c r="AR112" s="76"/>
-      <c r="AS112" s="76"/>
-      <c r="AT112" s="76"/>
-      <c r="AU112" s="76"/>
+      <c r="B112" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="77"/>
+      <c r="AI112" s="77"/>
+      <c r="AJ112" s="77"/>
+      <c r="AK112" s="77"/>
+      <c r="AL112" s="77"/>
+      <c r="AM112" s="77"/>
+      <c r="AN112" s="77"/>
+      <c r="AO112" s="77"/>
+      <c r="AP112" s="77"/>
+      <c r="AQ112" s="77"/>
+      <c r="AR112" s="77"/>
+      <c r="AS112" s="77"/>
+      <c r="AT112" s="77"/>
+      <c r="AU112" s="77"/>
     </row>
     <row r="113" spans="2:47" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
-      <c r="K113" s="76"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="76"/>
-      <c r="N113" s="76"/>
-      <c r="O113" s="76"/>
-      <c r="P113" s="76"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="76"/>
-      <c r="S113" s="76"/>
-      <c r="T113" s="76"/>
-      <c r="U113" s="76"/>
-      <c r="V113" s="76"/>
-      <c r="W113" s="76"/>
-      <c r="X113" s="76"/>
-      <c r="Y113" s="76"/>
-      <c r="Z113" s="76"/>
-      <c r="AA113" s="76"/>
-      <c r="AB113" s="76"/>
-      <c r="AC113" s="76"/>
-      <c r="AD113" s="76"/>
-      <c r="AE113" s="76"/>
-      <c r="AF113" s="76"/>
-      <c r="AG113" s="76"/>
-      <c r="AH113" s="76"/>
-      <c r="AI113" s="76"/>
-      <c r="AJ113" s="76"/>
-      <c r="AK113" s="76"/>
-      <c r="AL113" s="76"/>
-      <c r="AM113" s="76"/>
-      <c r="AN113" s="76"/>
-      <c r="AO113" s="76"/>
-      <c r="AP113" s="76"/>
-      <c r="AQ113" s="76"/>
-      <c r="AR113" s="76"/>
-      <c r="AS113" s="76"/>
-      <c r="AT113" s="76"/>
-      <c r="AU113" s="76"/>
+      <c r="B113" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="77"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
+      <c r="W113" s="77"/>
+      <c r="X113" s="77"/>
+      <c r="Y113" s="77"/>
+      <c r="Z113" s="77"/>
+      <c r="AA113" s="77"/>
+      <c r="AB113" s="77"/>
+      <c r="AC113" s="77"/>
+      <c r="AD113" s="77"/>
+      <c r="AE113" s="77"/>
+      <c r="AF113" s="77"/>
+      <c r="AG113" s="77"/>
+      <c r="AH113" s="77"/>
+      <c r="AI113" s="77"/>
+      <c r="AJ113" s="77"/>
+      <c r="AK113" s="77"/>
+      <c r="AL113" s="77"/>
+      <c r="AM113" s="77"/>
+      <c r="AN113" s="77"/>
+      <c r="AO113" s="77"/>
+      <c r="AP113" s="77"/>
+      <c r="AQ113" s="77"/>
+      <c r="AR113" s="77"/>
+      <c r="AS113" s="77"/>
+      <c r="AT113" s="77"/>
+      <c r="AU113" s="77"/>
+    </row>
+    <row r="114" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B114" s="79"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="77"/>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="77"/>
+      <c r="AK114" s="77"/>
+      <c r="AL114" s="77"/>
+      <c r="AM114" s="77"/>
+      <c r="AN114" s="77"/>
+      <c r="AO114" s="77"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="77"/>
+      <c r="AR114" s="77"/>
+      <c r="AS114" s="77"/>
+      <c r="AT114" s="77"/>
+      <c r="AU114" s="77"/>
+    </row>
+    <row r="115" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B115" s="79"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="80"/>
+      <c r="I115" s="80"/>
+      <c r="J115" s="80"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="80"/>
+      <c r="M115" s="80"/>
+      <c r="N115" s="80"/>
+      <c r="O115" s="80"/>
+      <c r="P115" s="80"/>
+      <c r="Q115" s="80"/>
+      <c r="R115" s="80"/>
+      <c r="S115" s="80"/>
+      <c r="T115" s="80"/>
+      <c r="U115" s="80"/>
+      <c r="V115" s="80"/>
+      <c r="W115" s="80"/>
+      <c r="X115" s="80"/>
+      <c r="Y115" s="80"/>
+      <c r="Z115" s="80"/>
+      <c r="AA115" s="80"/>
+      <c r="AB115" s="80"/>
+      <c r="AC115" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{FE012D70-CCEF-42DE-AE43-6C00649163E2}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{77935644-227C-4A82-9409-F7A5219B8B12}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{987F07C1-79EA-4335-9ADB-0F8656744B64}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{5EA03418-19E7-494C-91D1-C92CEF55FA14}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{16ED0650-2F4D-4063-B22F-AB9BB4B527BF}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{020C2E62-8AE2-481C-8468-DF333CB31377}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5E5A9ED7-260B-4D5D-8D39-14C3409833E4}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1D1EE609-FCAC-493C-A5B4-B9E228815015}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{DA370410-9282-43F7-A37E-A9A58F0516DD}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{AD4DF62A-D73C-4B73-9B95-C6645EBF0FD8}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{461BB9A4-71B6-48FD-AA20-A1BF94F10D41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
